--- a/Neurons_glial.xlsx
+++ b/Neurons_glial.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ybahar/Documents/Git/DevelopmentalSignaling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{794BAEEC-66EB-E74A-A71C-AF3EB29D2B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F63306-6320-6044-B2B0-0AAB025A5DE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="27340" windowHeight="17040" xr2:uid="{6232272C-963C-164E-84B9-6AE64F686C10}"/>
+    <workbookView xWindow="13580" yWindow="-21140" windowWidth="27580" windowHeight="16300" xr2:uid="{6232272C-963C-164E-84B9-6AE64F686C10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>hkb</t>
   </si>
@@ -64,19 +64,162 @@
   </si>
   <si>
     <t>glia</t>
+  </si>
+  <si>
+    <t>Interneurons</t>
+  </si>
+  <si>
+    <t>﻿NB 1-2, NB 2-1, MP2, NB 4-1, NB 5-1, NB 5-3, NB 6-1, NB 6-2, and NB 7-2)</t>
+  </si>
+  <si>
+    <t>﻿motoneurons</t>
+  </si>
+  <si>
+    <t>﻿segment-specific lineages</t>
+  </si>
+  <si>
+    <t>﻿NB 1-1, NB 2-2, and NB 3-1 form</t>
+  </si>
+  <si>
+    <t>dNR</t>
+  </si>
+  <si>
+    <t>NB lineages</t>
+  </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>Glial cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vNR </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>%cells</t>
+  </si>
+  <si>
+    <t>Glial progeny only</t>
+  </si>
+  <si>
+    <t>﻿NB 6-4A, GP</t>
+  </si>
+  <si>
+    <t>Glia and neurons</t>
+  </si>
+  <si>
+    <t>﻿NBs 1-3, 2-5, 5-6, 6-4T, 7-4</t>
+  </si>
+  <si>
+    <t>﻿NB 3-1, NB 3-2, NB 4-2, NB 5-2, NB 7-1, and NB 7-3</t>
+  </si>
+  <si>
+    <t>﻿NBs 2-4, 3-3, 3-5, 4-3, 4-4, 5-4, clone y</t>
+  </si>
+  <si>
+    <t>inter or neuron or both</t>
+  </si>
+  <si>
+    <t> 5-6</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFF2F2F2"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>6-4</t>
+    </r>
+  </si>
+  <si>
+    <t>3-3 </t>
+  </si>
+  <si>
+    <t>7-4 </t>
+  </si>
+  <si>
+    <t> 3-2</t>
+  </si>
+  <si>
+    <t> 4-2</t>
+  </si>
+  <si>
+    <t> 5-3</t>
+  </si>
+  <si>
+    <t> 6-2</t>
+  </si>
+  <si>
+    <t> 7-2</t>
+  </si>
+  <si>
+    <t> MP2</t>
+  </si>
+  <si>
+    <t> 4-1</t>
+  </si>
+  <si>
+    <t> 5-2</t>
+  </si>
+  <si>
+    <t> 7-1</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t> G</t>
+  </si>
+  <si>
+    <t>N </t>
+  </si>
+  <si>
+    <t> N</t>
+  </si>
+  <si>
+    <t>?hkb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFF2F2F2"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -105,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -187,18 +330,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -208,6 +433,88 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,25 +830,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC3614F-A3E7-5E4F-829C-C53A37E6A534}">
-  <dimension ref="D3:K15"/>
+  <dimension ref="D3:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -549,7 +860,7 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="5"/>
@@ -560,41 +871,41 @@
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D5" s="3"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D6" s="4"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D8" s="1"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
       <c r="H8" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="11"/>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.2">
@@ -613,11 +924,355 @@
         <v>12</v>
       </c>
     </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>200</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>13</v>
+      </c>
+      <c r="F26">
+        <v>120</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <f>SUM(E25:E26)</f>
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <f>SUM(F25:F26)</f>
+        <v>320</v>
+      </c>
+      <c r="G27">
+        <f>SUM(G25:G26)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="12">
+        <f>(100*320)/348</f>
+        <v>91.954022988505741</v>
+      </c>
+      <c r="G28" s="12">
+        <f>(100*28)/348</f>
+        <v>8.0459770114942533</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="E33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="5:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="E34" s="25">
+        <v>44232</v>
+      </c>
+      <c r="F34" s="15">
+        <v>44260</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="E35" s="26"/>
+      <c r="F35" s="16">
+        <v>44290</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="5:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="E36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="5:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="E38" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="5:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="E39" s="21">
+        <v>44197</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="E40" s="22">
+        <v>44229</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="H40" s="16">
+        <v>44348</v>
+      </c>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="5:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="E41" s="22">
+        <v>44228</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="33"/>
+    </row>
+    <row r="48" spans="5:9" ht="23" x14ac:dyDescent="0.25">
+      <c r="E48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="14"/>
+    </row>
+    <row r="49" spans="5:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="E49" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="E50" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="36"/>
+      <c r="G50" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" s="33"/>
+    </row>
+    <row r="51" spans="5:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="E52" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="36"/>
+      <c r="I52" s="33"/>
+    </row>
+    <row r="53" spans="5:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="18">
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="I49:I50"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
